--- a/biology/Zoologie/Falklandia_rumbolli/Falklandia_rumbolli.xlsx
+++ b/biology/Zoologie/Falklandia_rumbolli/Falklandia_rumbolli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falklandia rumbolli, unique représentant du genre Falklandia, est une espèce d'araignées aranéomorphes de la famille des Orsolobidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falklandia rumbolli, unique représentant du genre Falklandia, est une espèce d'araignées aranéomorphes de la famille des Orsolobidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Malouines[1]. Elle se rencontre sur les îles Grande Malouine, Malouine orientale, Kidney et Beauchêne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Malouines. Elle se rencontre sur les îles Grande Malouine, Malouine orientale, Kidney et Beauchêne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Forster et Platnick en 1985 mesure 4,62 mm et la femelle mesure 6,12 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Forster et Platnick en 1985 mesure 4,62 mm et la femelle mesure 6,12 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est nommé en l'honneur de Mauricio A. E. Rumboll.
 </t>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schiapelli &amp; Gerschman, 1974 : Arañas de las islas Malvinas. Revista del Museo Argentino de Ciencias Naturales, Entomología, vol. 4, no 3, p. 79-93.
 Forster &amp; Platnick, 1985 : A review of the austral spider family Orsolobidae (Arachnida, Araneae), with notes on the superfamily Dysderoidea. Bulletin of the American Museum of Natural History, no 181, p. 1-229 (texte intégral).</t>
